--- a/Report/Xfce/OpenEuler RISC-V Xfce之Panel功能测试/测试审核.xlsx
+++ b/Report/Xfce/OpenEuler RISC-V Xfce之Panel功能测试/测试审核.xlsx
@@ -1,30 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25028"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\15532\Desktop\测试评审\1. openEuler RISCV系统安装测试\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA7B778F-67E3-460A-9D8D-142178BF9E61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="18650" windowHeight="7120"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="pkg_test_ppl.md" localSheetId="0">Sheet1!$A$1:$E$44</definedName>
+    <definedName name="pkg_test_ppl.md" localSheetId="0">Sheet1!$A$1:$F$44</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="pkg-test-ppl" type="6" refreshedVersion="2" background="1" saveData="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <connection id="1" name="pkg-test-ppl" type="6" background="1" refreshedVersion="2" saveData="1">
     <textPr sourceFile="/Users/juhan/local/notes/实习/open-euler-notes/pkg-test-ppl.md" tab="0" delimiter="|">
       <textFields>
         <textField/>
@@ -35,108 +29,64 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t># 测试结果</t>
   </si>
   <si>
-    <t>## 面向openEuler for RISC-V的安装测试</t>
+    <t>## OpenEuler RISC-V Xfce之Panel功能测试</t>
+  </si>
+  <si>
+    <t>序号</t>
   </si>
   <si>
     <t xml:space="preserve"> 姓名 </t>
   </si>
   <si>
-    <t xml:space="preserve"> 备注 </t>
+    <t>对应提交物</t>
+  </si>
+  <si>
+    <t>备注</t>
   </si>
   <si>
     <t xml:space="preserve"> 金额 </t>
   </si>
   <si>
-    <t>顾润</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄悦凯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成，提交安装全程截图。但缺乏详细的安装过程步骤文字说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成，提交详细的文字说明，但是缺少安装过程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蒋炜奕</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李瑞泉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>宋鉴清</t>
-  </si>
-  <si>
-    <t>宋双梅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>王梓祺</t>
-  </si>
-  <si>
-    <t>完成，提交安装步骤和截图</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>薛咏耀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张丹雅</t>
-  </si>
-  <si>
-    <t>张玉</t>
-  </si>
-  <si>
-    <t>钟佳鹏</t>
-  </si>
-  <si>
-    <t>符传钟</t>
-  </si>
-  <si>
-    <t>完成，QEMU下OpenEuler RISCV安装步骤描述详细，提交步骤截图充分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黎应林</t>
-  </si>
-  <si>
-    <t>刘哲</t>
-  </si>
-  <si>
-    <t>完成，openeuler risc-v 成功启动，但是 neofetch启动失败，只有一个截图</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成，QEMU下OpenEuler RISCV提交了部分过程截图，无安装过程步骤描述文字、部分步骤截图缺失</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">卫红敏 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注：卫红敏 提交了两份相同报告</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>龚士豪</t>
+  </si>
+  <si>
+    <t>龚士豪OpenEuler RISC-V Xfce之Panel功能测试报告_102543_1651227109404</t>
+  </si>
+  <si>
+    <t>胡津昌</t>
+  </si>
+  <si>
+    <t>胡津昌-OpenEuler RISC-V Xfce之Panel功能测试</t>
+  </si>
+  <si>
+    <t>马凡</t>
+  </si>
+  <si>
+    <t>马凡Panel功能测试_117554_1649842856015</t>
+  </si>
+  <si>
+    <t>许正韬</t>
+  </si>
+  <si>
+    <t>许正韬Panel测试_117522_1652097553815</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -145,30 +95,352 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -176,9 +448,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -189,37 +703,81 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="pkg-test-ppl.md" connectionId="1" xr16:uid="{00000000-0016-0000-0000-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="pkg-test-ppl.md" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -474,275 +1032,238 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="12.4609375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.3046875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="58.07421875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="7.15234375" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="11" style="1"/>
+    <col min="1" max="1" width="12.4615384615385" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.3076923076923" style="1" customWidth="1"/>
+    <col min="3" max="3" width="28.4615384615385" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.8846153846154" style="1" customWidth="1"/>
+    <col min="5" max="5" width="7.15384615384615" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="62" x14ac:dyDescent="0.35">
+      <c r="B1" s="2"/>
+    </row>
+    <row r="3" ht="46.5" spans="1:1">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B4" s="1" t="s">
+    <row r="4" spans="1:5">
+      <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="B4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="C4" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B5" s="2">
-        <v>406</v>
-      </c>
-      <c r="C5" s="3" t="s">
+      <c r="D4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" ht="46.5" spans="1:5">
+      <c r="A5" s="3">
+        <v>1</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="2">
+      <c r="C5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="31" x14ac:dyDescent="0.35">
-      <c r="B6" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="2">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B7" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="2">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B8" s="4" t="s">
+    <row r="6" ht="31" spans="1:5">
+      <c r="A6" s="3">
+        <v>2</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="2">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="31" x14ac:dyDescent="0.35">
-      <c r="B9" s="4" t="s">
+      <c r="C6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="2">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="31" x14ac:dyDescent="0.35">
-      <c r="B10" s="2" t="s">
+      <c r="D6" s="4"/>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" ht="31" spans="1:5">
+      <c r="A7" s="3">
+        <v>3</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="2">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="31" x14ac:dyDescent="0.35">
-      <c r="B11" s="4" t="s">
+      <c r="C7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="2">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B12" s="2" t="s">
+      <c r="D7" s="4"/>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" ht="31" spans="1:5">
+      <c r="A8" s="3">
+        <v>4</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="2">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="31" x14ac:dyDescent="0.35">
-      <c r="B13" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" s="2">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="31" x14ac:dyDescent="0.35">
-      <c r="B14" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" s="2">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="31" x14ac:dyDescent="0.35">
-      <c r="B15" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" s="2">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="31" x14ac:dyDescent="0.35">
-      <c r="B16" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D16" s="2">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" ht="31" x14ac:dyDescent="0.35">
-      <c r="B17" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D17" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" ht="31" x14ac:dyDescent="0.35">
-      <c r="B18" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D18" s="2">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" ht="31" x14ac:dyDescent="0.35">
-      <c r="B19" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D19" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" ht="31" x14ac:dyDescent="0.35">
-      <c r="B20" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D20" s="2">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B32" s="2"/>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B33" s="2"/>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B34" s="2"/>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B35" s="2"/>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B36" s="2"/>
-    </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B37" s="2"/>
-    </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B38" s="2"/>
-    </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B39" s="2"/>
-    </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B40" s="2"/>
-    </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B41" s="2"/>
-    </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B42" s="2"/>
-    </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B43" s="2"/>
-    </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B44" s="2"/>
-    </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B45" s="2"/>
-    </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B46" s="2"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="3"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="3"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="3"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="3"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="3"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="3"/>
+    </row>
+    <row r="17" spans="2:5">
+      <c r="B17" s="3"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="3"/>
+    </row>
+    <row r="18" spans="2:5">
+      <c r="B18" s="3"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="3"/>
+    </row>
+    <row r="19" spans="2:5">
+      <c r="B19" s="3"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="3"/>
+    </row>
+    <row r="20" spans="2:5">
+      <c r="B20" s="3"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="3"/>
+    </row>
+    <row r="32" spans="2:2">
+      <c r="B32" s="3"/>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" s="3"/>
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34" s="3"/>
+    </row>
+    <row r="35" spans="2:2">
+      <c r="B35" s="3"/>
+    </row>
+    <row r="36" spans="2:2">
+      <c r="B36" s="3"/>
+    </row>
+    <row r="37" spans="2:2">
+      <c r="B37" s="3"/>
+    </row>
+    <row r="38" spans="2:2">
+      <c r="B38" s="3"/>
+    </row>
+    <row r="39" spans="2:2">
+      <c r="B39" s="3"/>
+    </row>
+    <row r="40" spans="2:2">
+      <c r="B40" s="3"/>
+    </row>
+    <row r="41" spans="2:2">
+      <c r="B41" s="3"/>
+    </row>
+    <row r="42" spans="2:2">
+      <c r="B42" s="3"/>
+    </row>
+    <row r="43" spans="2:2">
+      <c r="B43" s="3"/>
+    </row>
+    <row r="44" spans="2:2">
+      <c r="B44" s="3"/>
+    </row>
+    <row r="45" spans="2:2">
+      <c r="B45" s="3"/>
+    </row>
+    <row r="46" spans="2:2">
+      <c r="B46" s="3"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>